--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="398">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2369,6 +2369,218 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=14-J2uZL5F-u6y_jifccscz8mqXQb_i2Q</t>
+  </si>
+  <si>
+    <t>Maria Beatriz Mandello Casagrande Almeida</t>
+  </si>
+  <si>
+    <t>Lorena, Sayuri</t>
+  </si>
+  <si>
+    <t>Batuqueiro-de-bico-laranja</t>
+  </si>
+  <si>
+    <t>Saltatricula atricollis (não consigo inserir em itálico)</t>
+  </si>
+  <si>
+    <t>sementes e artrópodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matas ou cerrados. </t>
+  </si>
+  <si>
+    <t>Vivem em pares ou grupos com poucos animais, quando está amanhecendo, tem o hábito de gritar em grupo e buscar alimento entre arbustos.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XLvbyMuhPJp5REfPYQ2Bx-aijONSoSIZ</t>
+  </si>
+  <si>
+    <t>Parque Estadual Mata São Francisco - Santa Mariana</t>
+  </si>
+  <si>
+    <t>Pomba</t>
+  </si>
+  <si>
+    <t>grãos silvestres e de brotos de plantações</t>
+  </si>
+  <si>
+    <t>áreas urbanas e rurais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É uma das poucas aves de ambiente terrestre na ilha de Fernando de Noronha, no meio do Oceano Atlântico. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cEPOb-f8VDwCcUNiClPvNzRYvbrVx_LR</t>
+  </si>
+  <si>
+    <t>Universidade Estadual do Norte do Paraná - Campus Cornélio Procópio</t>
+  </si>
+  <si>
+    <t>Beija-flor Asa-de-sabre-violeta</t>
+  </si>
+  <si>
+    <t>Campylopterus hemileucurus</t>
+  </si>
+  <si>
+    <t>Trochilidae</t>
+  </si>
+  <si>
+    <t>Apodiformes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Nectívoro</t>
+  </si>
+  <si>
+    <t>Ocorre em florestas, mas pode ser avistado em área urbana</t>
+  </si>
+  <si>
+    <t>Hábito de acasalamento poligâmico.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FxWTR8_X5XuiREWL-f8L2vPW4LigJpWa</t>
+  </si>
+  <si>
+    <t>Tarumã - SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periquito-de-colar ou Ring Neck violeta </t>
+  </si>
+  <si>
+    <t>À base de sementes e frutos de árvores, como acácias e figueiras, que colhe durante o dia.</t>
+  </si>
+  <si>
+    <t>Desde savanas semi-desérticas e matagais a florestas diversas, até aos 1600 m de altitude.</t>
+  </si>
+  <si>
+    <t>a Ásia é considerada uma das aves mais destrutivas para as colheitas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UQNE7vcuHGMrFi_U8qqnYYxcWtLNyxS3</t>
+  </si>
+  <si>
+    <t>Nova Fátima - PR</t>
+  </si>
+  <si>
+    <t>Coruja-buraqueira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athene cunicularia </t>
+  </si>
+  <si>
+    <t>Strigidae</t>
+  </si>
+  <si>
+    <t>hábito carnívoro-insetívoro</t>
+  </si>
+  <si>
+    <t>Costuma viver em campos, cerrados, pastos, restingas, planícies, praias, aeroportos e terrenos baldios em cidades.</t>
+  </si>
+  <si>
+    <t>não conseguem mover os olhos, porém são capazes de girar a cabeça em 270°</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tojtyqbXkB2N9sYJA3A62xxP6Y6o0_Zn</t>
+  </si>
+  <si>
+    <t>Frutos de palmitos Euterpes edulis, fruto da embaúba, pitanga, artrópodes e pequenos vertebrados, filhotes e ovos em ninhos de outras aves.</t>
+  </si>
+  <si>
+    <t>Vive em áreas florestadas desde o litoral até as zonas montanhosas, incluindo as florestas de planalto.
+Habita a copa de florestas altas, principalmente em áreas montanhosas da Mata Atlântica, em seu interior e nas bordas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São caçados devido ao interesse em sua carne. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1O6ui1rZcbP2nQz7JyzDgKkOhFYlqiqXG</t>
+  </si>
+  <si>
+    <t>Curicaca</t>
+  </si>
+  <si>
+    <t>Theristicus caudatus</t>
+  </si>
+  <si>
+    <t>Threskiornithidae</t>
+  </si>
+  <si>
+    <t>artrópodes, como centopeias, aranhas, insetos adultos e larvas, entre outros invertebrados, podendo predar ainda pequenos lagartos, ratos, caramujos, anfíbios e pequenas serpentes, e até mesmo aves menores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campos de gramíneas ou em alagados, áreas urbanas. </t>
+  </si>
+  <si>
+    <t>Seu bico, longo e curvo, é adaptado para extrair larvas de besouros e outros insetos da terra.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XDDpUna0WaJIFM0cjcydzO5ERAkykx_3</t>
+  </si>
+  <si>
+    <t>Nova Fátima - Paraná</t>
+  </si>
+  <si>
+    <t>Ganso ou ganso bravo</t>
+  </si>
+  <si>
+    <t>Anser anser</t>
+  </si>
+  <si>
+    <t>herbívora-insetívora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zonas húmidas, por vezes pantanosas e lagos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migram com formações de voo em forma de “V”, “U” ou linha. Aproveitando a diminuição da resistência do ar. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IoPgzBfKsCxJS1NWNypscsPgwItfucvk</t>
+  </si>
+  <si>
+    <t>Residencial Casagrande &amp; Carvalho - Paranagi (PR)</t>
+  </si>
+  <si>
+    <t>Urubu-preto</t>
+  </si>
+  <si>
+    <t>Saprófaga, alimenta-se de carcaças de animais mortos e outros materiais orgânicos em decomposição</t>
+  </si>
+  <si>
+    <t>Área rural, plantações e área urbana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazem allopreening, que é um comportamento social onde indivíduos de determinada espécie executam a limpeza em outro indivíduo pertencente ao seu grupo social. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NYfLr7PS32bO3TBTvbOzQPHRaJ2ngfhN</t>
+  </si>
+  <si>
+    <t>Cornélio Procópio</t>
+  </si>
+  <si>
+    <t>Pavão-azul</t>
+  </si>
+  <si>
+    <t>Pavo cristatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phasianidae</t>
+  </si>
+  <si>
+    <t>Herbívoro-insetivóros, apesar de preferirem se alimentar de insetos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pradarias secas semi-desérticas, matagais, florestas perenifólias, sobem em árvores.</t>
+  </si>
+  <si>
+    <t>Na época do acasalamento, o pavão macho abre sua cauda e roda para chamar a atenção da fêmea. O ato de rodopiar também costuma ter outra finalidade: a defesa. O mecanismo é aumentar seu tamanho e intimidar o predador.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12UusSOBwy72TXjlhdTD4dq27TzttelHb</t>
+  </si>
+  <si>
+    <t>Congonhas - Paraná</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +2590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2400,6 +2612,10 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2415,7 +2631,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2428,6 +2644,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2994,7 +3213,7 @@
       <c r="T2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -3021,7 +3240,7 @@
       <c r="AC2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>111</v>
       </c>
       <c r="AE2" s="4" t="s">
@@ -3048,7 +3267,7 @@
       <c r="AL2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="6" t="s">
         <v>120</v>
       </c>
       <c r="AN2" s="4" t="s">
@@ -3075,7 +3294,7 @@
       <c r="AU2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AV2" s="6" t="s">
         <v>128</v>
       </c>
       <c r="AW2" s="4" t="s">
@@ -3102,7 +3321,7 @@
       <c r="BD2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BE2" s="6" t="s">
         <v>135</v>
       </c>
       <c r="BF2" s="4" t="s">
@@ -3129,7 +3348,7 @@
       <c r="BM2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BN2" s="5" t="s">
+      <c r="BN2" s="6" t="s">
         <v>144</v>
       </c>
       <c r="BO2" s="4" t="s">
@@ -3153,7 +3372,7 @@
       <c r="BU2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BW2" s="5" t="s">
+      <c r="BW2" s="6" t="s">
         <v>152</v>
       </c>
       <c r="BX2" s="4" t="s">
@@ -3177,7 +3396,7 @@
       <c r="CD2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="CF2" s="5" t="s">
+      <c r="CF2" s="6" t="s">
         <v>159</v>
       </c>
       <c r="CG2" s="4" t="s">
@@ -3201,7 +3420,7 @@
       <c r="CM2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="CO2" s="5" t="s">
+      <c r="CO2" s="6" t="s">
         <v>166</v>
       </c>
       <c r="CP2" s="4" t="s">
@@ -3239,7 +3458,7 @@
       <c r="K3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>176</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -3263,7 +3482,7 @@
       <c r="S3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="6" t="s">
         <v>183</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -3287,7 +3506,7 @@
       <c r="AB3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="6" t="s">
         <v>191</v>
       </c>
       <c r="AE3" s="4" t="s">
@@ -3311,7 +3530,7 @@
       <c r="AK3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AM3" s="6" t="s">
         <v>198</v>
       </c>
       <c r="AN3" s="4" t="s">
@@ -3335,7 +3554,7 @@
       <c r="AT3" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="5" t="s">
+      <c r="AV3" s="6" t="s">
         <v>206</v>
       </c>
       <c r="AW3" s="4" t="s">
@@ -3370,7 +3589,7 @@
       <c r="J4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>214</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -3397,7 +3616,7 @@
       <c r="T4" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="6" t="s">
         <v>223</v>
       </c>
       <c r="V4" s="4" t="s">
@@ -3421,7 +3640,7 @@
       <c r="AB4" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="6" t="s">
         <v>231</v>
       </c>
       <c r="AE4" s="4" t="s">
@@ -3459,7 +3678,7 @@
       <c r="K5" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>241</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -3486,7 +3705,7 @@
       <c r="T5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="6" t="s">
         <v>248</v>
       </c>
       <c r="V5" s="4" t="s">
@@ -3510,7 +3729,7 @@
       <c r="AC5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="6" t="s">
         <v>255</v>
       </c>
       <c r="AE5" s="4" t="s">
@@ -3537,7 +3756,7 @@
       <c r="AL5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AM5" s="6" t="s">
         <v>261</v>
       </c>
       <c r="AN5" s="4" t="s">
@@ -3564,7 +3783,7 @@
       <c r="AU5" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AV5" s="6" t="s">
         <v>270</v>
       </c>
       <c r="AW5" s="4" t="s">
@@ -3591,7 +3810,7 @@
       <c r="BD5" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="BE5" s="5" t="s">
+      <c r="BE5" s="6" t="s">
         <v>277</v>
       </c>
       <c r="BF5" s="4" t="s">
@@ -3618,7 +3837,7 @@
       <c r="BM5" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="BN5" s="5" t="s">
+      <c r="BN5" s="6" t="s">
         <v>285</v>
       </c>
       <c r="BO5" s="4" t="s">
@@ -3645,7 +3864,7 @@
       <c r="BV5" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="BW5" s="5" t="s">
+      <c r="BW5" s="6" t="s">
         <v>293</v>
       </c>
       <c r="BX5" s="4" t="s">
@@ -3672,7 +3891,7 @@
       <c r="CE5" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CF5" s="6" t="s">
         <v>299</v>
       </c>
       <c r="CG5" s="4" t="s">
@@ -3699,7 +3918,7 @@
       <c r="CN5" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="CO5" s="5" t="s">
+      <c r="CO5" s="6" t="s">
         <v>306</v>
       </c>
       <c r="CP5" s="4" t="s">
@@ -3737,7 +3956,7 @@
       <c r="K6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>316</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -3764,7 +3983,7 @@
       <c r="T6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="6" t="s">
         <v>323</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3791,11 +4010,292 @@
       <c r="AC6" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="6" t="s">
         <v>327</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>45505.63452690972</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE7" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="BK7" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM7" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="BN7" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="BO7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="BP7" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="BQ7" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="BR7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS7" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BT7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="BV7" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="BW7" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX7" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="BY7" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="BZ7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC7" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CD7" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE7" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CF7" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="CG7" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="CH7" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="CI7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="CJ7" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="CK7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="CL7" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="CM7" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="CN7" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="CO7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="CP7" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +4331,17 @@
     <hyperlink r:id="rId29" ref="L6"/>
     <hyperlink r:id="rId30" ref="U6"/>
     <hyperlink r:id="rId31" ref="AD6"/>
+    <hyperlink r:id="rId32" ref="L7"/>
+    <hyperlink r:id="rId33" ref="U7"/>
+    <hyperlink r:id="rId34" ref="AD7"/>
+    <hyperlink r:id="rId35" ref="AM7"/>
+    <hyperlink r:id="rId36" ref="AV7"/>
+    <hyperlink r:id="rId37" ref="BE7"/>
+    <hyperlink r:id="rId38" ref="BN7"/>
+    <hyperlink r:id="rId39" ref="BW7"/>
+    <hyperlink r:id="rId40" ref="CF7"/>
+    <hyperlink r:id="rId41" ref="CO7"/>
   </hyperlinks>
-  <drawing r:id="rId32"/>
+  <drawing r:id="rId42"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1645,7 +1645,7 @@
     <t>Milena Carneiro</t>
   </si>
   <si>
-    <t>Ana Julia, Ariane, Isabela</t>
+    <t>Ana Julia Cardoso Marques, Ariane Izyhara, Isabela Bezerra, Millena C. Medeiros</t>
   </si>
   <si>
     <t>Anu-branco</t>
@@ -1894,7 +1894,7 @@
     <t>Laura</t>
   </si>
   <si>
-    <t>Aaron, Laura, Maria Eduarda</t>
+    <t>Aaron Callegari, Laura Brida, Maria Eduarda Martins Toledo</t>
   </si>
   <si>
     <t xml:space="preserve">Galinha d' angola </t>
@@ -2089,7 +2089,7 @@
     <t xml:space="preserve">Gabriel Augusto Martins </t>
   </si>
   <si>
-    <t>Gabriel, Luis Felipe</t>
+    <t>Gabriel Augusto Martins, Luis Felipe Marcondes Kazahaya</t>
   </si>
   <si>
     <t>Urubu-Preto</t>
@@ -2374,7 +2374,7 @@
     <t>Maria Beatriz Mandello Casagrande Almeida</t>
   </si>
   <si>
-    <t>Lorena, Sayuri</t>
+    <t>Lorena Rafaela Felix, Sayuri Faccini Noda, Maria Beatriz Mandello Casagrande Almeida</t>
   </si>
   <si>
     <t>Batuqueiro-de-bico-laranja</t>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\github\aves\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40956042-34BD-4420-83BC-593822825DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2355" yWindow="2355" windowWidth="21600" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respostas ao formulário 1" sheetId="1" r:id="rId4"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="457">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -24,31 +33,35 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">todos </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">integrantes do seu grupo </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(incluindo você)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>:</t>
     </r>
@@ -56,74 +69,83 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Preferencialmente</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>preencha o formulário</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>.</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 Porém, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>caso já tenha</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> o trabalho em pdf, você pode fazer o </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">upload aqui </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>e ir até o final.</t>
     </r>
@@ -131,16 +153,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -148,31 +172,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -180,16 +208,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -197,16 +227,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -214,16 +246,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -231,16 +265,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -248,16 +284,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -268,16 +306,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -285,16 +325,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -302,31 +344,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -334,16 +380,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -351,16 +399,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -368,16 +418,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -385,16 +437,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -402,16 +456,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -419,16 +475,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -436,16 +494,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -453,31 +513,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -485,16 +549,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -502,16 +568,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -519,16 +587,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -536,16 +606,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -553,16 +625,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -570,16 +644,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -587,16 +663,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -604,31 +682,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -636,16 +718,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -653,16 +737,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -670,16 +756,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -687,16 +775,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -704,16 +794,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -721,16 +813,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -738,16 +832,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -755,31 +851,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -787,16 +887,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -804,16 +906,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -821,16 +925,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -838,16 +944,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -855,16 +963,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -872,16 +982,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -889,16 +1001,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -906,31 +1020,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -938,16 +1056,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -955,16 +1075,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -972,16 +1094,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -989,16 +1113,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -1006,16 +1132,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -1023,16 +1151,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -1040,16 +1170,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -1057,31 +1189,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1089,16 +1225,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -1106,16 +1244,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -1123,16 +1263,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -1140,16 +1282,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -1157,16 +1301,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -1174,16 +1320,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -1191,16 +1339,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -1208,31 +1358,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1240,16 +1394,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -1257,16 +1413,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -1274,16 +1432,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -1291,16 +1451,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -1308,16 +1470,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -1325,16 +1489,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -1342,16 +1508,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -1359,31 +1527,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1391,16 +1563,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -1408,16 +1582,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -1425,16 +1601,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -1442,16 +1620,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -1459,16 +1639,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -1476,16 +1658,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -1493,16 +1677,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Nome comum:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (ex.  Quero-Quero, Tero, Tetéu)</t>
     </r>
@@ -1510,31 +1696,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Espécie: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(ex.  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Vanellus chilensis</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1542,16 +1732,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Família </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. "Charadriidae")</t>
     </r>
@@ -1559,16 +1751,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Ordem </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex.  Charadriiformes)</t>
     </r>
@@ -1576,16 +1770,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Alimentação: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Insetos, aranhas, vermes, pequenos crustáceos)</t>
     </r>
@@ -1593,16 +1789,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Habitat: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>(ex. Campos abertos, áreas urbanas, pastagens, margens de lagos e rios )</t>
     </r>
@@ -1610,16 +1808,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Curiosidades e outras informações:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> (Opcional - Ex. "O Quero-Quero é conhecido por suas habilidades de defesa do ninho, amedrontando intrusos com voos rasantes e esporões nas asas.")</t>
     </r>
@@ -1627,16 +1827,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Local da foto</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: (Ex. Praça Botafogo)</t>
     </r>
@@ -2581,40 +2783,258 @@
   </si>
   <si>
     <t>Congonhas - Paraná</t>
+  </si>
+  <si>
+    <t>Giovanna Freitas</t>
+  </si>
+  <si>
+    <t>Débora, Giovana Santos, Giovanna Freitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanellus chilensis</t>
+  </si>
+  <si>
+    <t>Moluscos e insetos</t>
+  </si>
+  <si>
+    <t>Habitam banhados e pastagens, estradas e campos próximos a fazendas.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y4NsYUG91QBfLjbjhYikLuBvw6OTRhac</t>
+  </si>
+  <si>
+    <t>UENP-Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coruja orelhuda </t>
+  </si>
+  <si>
+    <t>Asio clamator</t>
+  </si>
+  <si>
+    <t>Cracidae</t>
+  </si>
+  <si>
+    <t>Ratos, morcegos, anfíbios, répteis, insetos grandes e aves</t>
+  </si>
+  <si>
+    <t>Cerrados, caatingas, florestas e áreas urbanas arborizadas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Az_P2kH9U728z9Iy8JD1ioEW3wd3gHpC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papagaio </t>
+  </si>
+  <si>
+    <t>Amazona aestiva </t>
+  </si>
+  <si>
+    <t>Psittaciforme</t>
+  </si>
+  <si>
+    <t>sementes, frutos e folhas</t>
+  </si>
+  <si>
+    <t>América do Sul, do nordeste do Brasil, leste da Bolívia, Paraguai, até o norte de Argentina. Presente no interior do Brasil, no Nordeste (Piauí, Pernambuco e Bahia), Centro-oeste, Sudeste (São Paulo, Minas Gerais e Rio de Janeiro) e no Sul, Santa Catarina (inclusive litoral) e Rio Grande do Sul.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oCzaHTu_peb4z5qioIx5rIFARUUXbSWz</t>
+  </si>
+  <si>
+    <t>Pombo-doméstico</t>
+  </si>
+  <si>
+    <t>Columba livia</t>
+  </si>
+  <si>
+    <t>É granívora (grãos) e frugívora (frutas) e aprecia variados tipos de sementes.</t>
+  </si>
+  <si>
+    <t>Centros urbanos</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11mhcEujPZQgy8QxXaHzWoIhJtJXPT3F0</t>
+  </si>
+  <si>
+    <t>Ibiporã- Paraná</t>
+  </si>
+  <si>
+    <t>Picapau do campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insetivoros. </t>
+  </si>
+  <si>
+    <t>Campos e cerrados</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1TOJizrsw-9uz-e07jTMkBf0Rde_kTT27</t>
+  </si>
+  <si>
+    <t>UENP-CP</t>
+  </si>
+  <si>
+    <t>Maritaca</t>
+  </si>
+  <si>
+    <t>Pionus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além da ração específica, elas adoram frutas doces e maduras como petiscos.
+</t>
+  </si>
+  <si>
+    <t>Com origem na América do Sul, a maritaca está presente em diversos estados brasileiros, como também pode ser encontrada na Bolívia, na Argentina e no Paraguai.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FZxORHr31p2BgY_4pSYNmaVK9-li9T8Y</t>
+  </si>
+  <si>
+    <t>Galinha</t>
+  </si>
+  <si>
+    <t>Gallus gallus domesticus L.</t>
+  </si>
+  <si>
+    <t>Fasianideos</t>
+  </si>
+  <si>
+    <t>Galiniformes</t>
+  </si>
+  <si>
+    <t>Omnívoras</t>
+  </si>
+  <si>
+    <t>Matas abertas, capões, matas ciliares, zonas de cultivo, matas degradadas ou em recuperação, e até mesmo jardins e parques urbanos, tolerando climas de úmidos a semiáridos
+Local da foto: Cornélio Procópio</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FVuWrg213dpsWUOTj3M5FwRJdPGoZuUY</t>
+  </si>
+  <si>
+    <t>Frutos, folhas, brotos, flores de eucaliptos e insetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matas abertas, capões, matas ciliares, zonas de cultivo, matas degradadas ou em recuperação, e até mesmo jardins e parques urbanos, tolerando climas de úmidos a semiáridos
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1StpU_34r_VUXDmihq7y82LMHbZXsDhyk</t>
+  </si>
+  <si>
+    <t>Grou-coroado-cinzento</t>
+  </si>
+  <si>
+    <t>Balearica regulorum</t>
+  </si>
+  <si>
+    <t>Gruidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gruiformes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São onivoros </t>
+  </si>
+  <si>
+    <t>Savana arida da África</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-uoTH5zT4HXIJgBNlK1rpZcaBsUO5RJy</t>
+  </si>
+  <si>
+    <t>Museu de Cornélio Procópio</t>
+  </si>
+  <si>
+    <t>Ganso doméstico</t>
+  </si>
+  <si>
+    <t>Anser anser domesticus</t>
+  </si>
+  <si>
+    <t>Principalmente vegetais, complementando sua alimentação com moluscos e pequenos insetos</t>
+  </si>
+  <si>
+    <t>Comumente encontrados próximos à água</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10wdNyYJMwMsfvw2PSz5zUoiIb7AYikNT</t>
+  </si>
+  <si>
+    <t>Cornélio Procópio (Sítio)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2622,47 +3042,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2852,26 +3273,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:CP8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="100" width="18.88"/>
+    <col min="1" max="100" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,1193 +3579,1454 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>45503.83634659722</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>45503.836346597222</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BB2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BE2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BG2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BK2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BL2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BN2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BO2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BP2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BR2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BS2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BT2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BU2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BW2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="BX2" s="4" t="s">
+      <c r="BX2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BY2" s="4" t="s">
+      <c r="BY2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BZ2" s="4" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CA2" s="4" t="s">
+      <c r="CA2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CB2" s="4" t="s">
+      <c r="CB2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CC2" s="4" t="s">
+      <c r="CC2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="CD2" s="4" t="s">
+      <c r="CD2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CF2" s="6" t="s">
+      <c r="CF2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="CG2" s="4" t="s">
+      <c r="CG2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CH2" s="4" t="s">
+      <c r="CH2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CI2" s="4" t="s">
+      <c r="CI2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CJ2" s="4" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CK2" s="4" t="s">
+      <c r="CK2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="CL2" s="4" t="s">
+      <c r="CL2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CM2" s="4" t="s">
+      <c r="CM2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CO2" s="6" t="s">
+      <c r="CO2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="CP2" s="4" t="s">
+      <c r="CP2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>45504.48793337963</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>45504.487933379627</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AM3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AV3" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>45504.49748431713</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>45504.497484317129</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>45504.51793637731</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>45504.517936377313</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AD5" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AL5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AM5" s="6" t="s">
+      <c r="AM5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AN5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AO5" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AP5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AR5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AS5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AT5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AU5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AV5" s="6" t="s">
+      <c r="AV5" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="AW5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="AX5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AY5" s="4" t="s">
+      <c r="AY5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BA5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BB5" s="4" t="s">
+      <c r="BB5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BC5" s="4" t="s">
+      <c r="BC5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BD5" s="4" t="s">
+      <c r="BD5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BE5" s="6" t="s">
+      <c r="BE5" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="BF5" s="4" t="s">
+      <c r="BF5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="BG5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BH5" s="4" t="s">
+      <c r="BH5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BI5" s="4" t="s">
+      <c r="BI5" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BJ5" s="4" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BK5" s="4" t="s">
+      <c r="BK5" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="BL5" s="4" t="s">
+      <c r="BL5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="BM5" s="4" t="s">
+      <c r="BM5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="BN5" s="6" t="s">
+      <c r="BN5" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="BO5" s="4" t="s">
+      <c r="BO5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BP5" s="4" t="s">
+      <c r="BP5" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BQ5" s="4" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="BR5" s="4" t="s">
+      <c r="BR5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BS5" s="4" t="s">
+      <c r="BS5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BT5" s="4" t="s">
+      <c r="BT5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BU5" s="4" t="s">
+      <c r="BU5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BV5" s="4" t="s">
+      <c r="BV5" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="BW5" s="6" t="s">
+      <c r="BW5" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="BX5" s="4" t="s">
+      <c r="BX5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BY5" s="4" t="s">
+      <c r="BY5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="BZ5" s="4" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CA5" s="4" t="s">
+      <c r="CA5" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="CB5" s="4" t="s">
+      <c r="CB5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CC5" s="4" t="s">
+      <c r="CC5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="CD5" s="4" t="s">
+      <c r="CD5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="CE5" s="4" t="s">
+      <c r="CE5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="CF5" s="6" t="s">
+      <c r="CF5" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="CG5" s="4" t="s">
+      <c r="CG5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CH5" s="4" t="s">
+      <c r="CH5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="CI5" s="4" t="s">
+      <c r="CI5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="CJ5" s="4" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="CK5" s="4" t="s">
+      <c r="CK5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CL5" s="4" t="s">
+      <c r="CL5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="CM5" s="4" t="s">
+      <c r="CM5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="CN5" s="4" t="s">
+      <c r="CN5" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="CO5" s="6" t="s">
+      <c r="CO5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="CP5" s="4" t="s">
+      <c r="CP5" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45504.534405162034</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>45505.63452690972</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>45505.634526909722</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB7" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AD7" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF7" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AH7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AI7" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AK7" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AL7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AM7" s="6" t="s">
+      <c r="AM7" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AN7" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AO7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AP7" s="4" t="s">
+      <c r="AP7" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AR7" s="4" t="s">
+      <c r="AR7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AS7" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AT7" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AU7" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AV7" s="6" t="s">
+      <c r="AV7" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="AW7" s="4" t="s">
+      <c r="AW7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AX7" s="4" t="s">
+      <c r="AX7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AY7" s="4" t="s">
+      <c r="AY7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AZ7" s="4" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BA7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="BB7" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="BC7" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BD7" s="4" t="s">
+      <c r="BD7" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BE7" s="6" t="s">
+      <c r="BE7" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="BF7" s="4" t="s">
+      <c r="BF7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BG7" s="4" t="s">
+      <c r="BG7" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BH7" s="4" t="s">
+      <c r="BH7" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BI7" s="4" t="s">
+      <c r="BI7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BJ7" s="4" t="s">
+      <c r="BJ7" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BK7" s="4" t="s">
+      <c r="BK7" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BL7" s="4" t="s">
+      <c r="BL7" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BM7" s="4" t="s">
+      <c r="BM7" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BN7" s="6" t="s">
+      <c r="BN7" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="BO7" s="4" t="s">
+      <c r="BO7" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BP7" s="4" t="s">
+      <c r="BP7" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BQ7" s="4" t="s">
+      <c r="BQ7" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BR7" s="4" t="s">
+      <c r="BR7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BS7" s="4" t="s">
+      <c r="BS7" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BT7" s="4" t="s">
+      <c r="BT7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BU7" s="4" t="s">
+      <c r="BU7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BV7" s="4" t="s">
+      <c r="BV7" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BW7" s="6" t="s">
+      <c r="BW7" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="BX7" s="4" t="s">
+      <c r="BX7" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BY7" s="4" t="s">
+      <c r="BY7" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BZ7" s="4" t="s">
+      <c r="BZ7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CA7" s="4" t="s">
+      <c r="CA7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CB7" s="4" t="s">
+      <c r="CB7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CC7" s="4" t="s">
+      <c r="CC7" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="CD7" s="4" t="s">
+      <c r="CD7" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="CE7" s="4" t="s">
+      <c r="CE7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="CF7" s="6" t="s">
+      <c r="CF7" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="CG7" s="4" t="s">
+      <c r="CG7" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="CH7" s="4" t="s">
+      <c r="CH7" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="CI7" s="4" t="s">
+      <c r="CI7" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="CJ7" s="4" t="s">
+      <c r="CJ7" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="CK7" s="4" t="s">
+      <c r="CK7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CL7" s="4" t="s">
+      <c r="CL7" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="CM7" s="4" t="s">
+      <c r="CM7" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="CN7" s="4" t="s">
+      <c r="CN7" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="CO7" s="6" t="s">
+      <c r="CO7" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="CP7" s="4" t="s">
+      <c r="CP7" s="1" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:94" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45506.52745918982</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="CM8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="CP8" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2"/>
-    <hyperlink r:id="rId2" ref="U2"/>
-    <hyperlink r:id="rId3" ref="AD2"/>
-    <hyperlink r:id="rId4" ref="AM2"/>
-    <hyperlink r:id="rId5" ref="AV2"/>
-    <hyperlink r:id="rId6" ref="BE2"/>
-    <hyperlink r:id="rId7" ref="BN2"/>
-    <hyperlink r:id="rId8" ref="BW2"/>
-    <hyperlink r:id="rId9" ref="CF2"/>
-    <hyperlink r:id="rId10" ref="CO2"/>
-    <hyperlink r:id="rId11" ref="L3"/>
-    <hyperlink r:id="rId12" ref="U3"/>
-    <hyperlink r:id="rId13" ref="AD3"/>
-    <hyperlink r:id="rId14" ref="AM3"/>
-    <hyperlink r:id="rId15" ref="AV3"/>
-    <hyperlink r:id="rId16" ref="L4"/>
-    <hyperlink r:id="rId17" ref="U4"/>
-    <hyperlink r:id="rId18" ref="AD4"/>
-    <hyperlink r:id="rId19" ref="L5"/>
-    <hyperlink r:id="rId20" ref="U5"/>
-    <hyperlink r:id="rId21" ref="AD5"/>
-    <hyperlink r:id="rId22" ref="AM5"/>
-    <hyperlink r:id="rId23" ref="AV5"/>
-    <hyperlink r:id="rId24" ref="BE5"/>
-    <hyperlink r:id="rId25" ref="BN5"/>
-    <hyperlink r:id="rId26" ref="BW5"/>
-    <hyperlink r:id="rId27" ref="CF5"/>
-    <hyperlink r:id="rId28" ref="CO5"/>
-    <hyperlink r:id="rId29" ref="L6"/>
-    <hyperlink r:id="rId30" ref="U6"/>
-    <hyperlink r:id="rId31" ref="AD6"/>
-    <hyperlink r:id="rId32" ref="L7"/>
-    <hyperlink r:id="rId33" ref="U7"/>
-    <hyperlink r:id="rId34" ref="AD7"/>
-    <hyperlink r:id="rId35" ref="AM7"/>
-    <hyperlink r:id="rId36" ref="AV7"/>
-    <hyperlink r:id="rId37" ref="BE7"/>
-    <hyperlink r:id="rId38" ref="BN7"/>
-    <hyperlink r:id="rId39" ref="BW7"/>
-    <hyperlink r:id="rId40" ref="CF7"/>
-    <hyperlink r:id="rId41" ref="CO7"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AD2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AM2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AV2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="BE2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="BN2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="BW2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="CF2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="CO2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="U3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AD3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AM3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AV3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L4" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="U4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AD4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="U5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AD5" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AM5" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AV5" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="BE5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="BN5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="BW5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="CF5" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="CO5" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L6" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="U6" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="AD6" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L7" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="U7" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="AD7" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="AM7" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AV7" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="BE7" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="BN7" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="BW7" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="CF7" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="CO7" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L8" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="U8" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AD8" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="AM8" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="AV8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="BE8" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BN8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="BW8" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="CF8" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="CO8" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
   </hyperlinks>
-  <drawing r:id="rId42"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>